--- a/medicine/Enfance/Michael_Rosen_(écrivain)/Michael_Rosen_(écrivain).xlsx
+++ b/medicine/Enfance/Michael_Rosen_(écrivain)/Michael_Rosen_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michael_Rosen_(%C3%A9crivain)</t>
+          <t>Michael_Rosen_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Rosen, né le 7 mai 1946 à Harrow au nord de Londres, est un écrivain britannique de littérature d'enfance et de jeunesse[1]. Il est titulaire de la distinction Children's Laureate de juin 2007 à 2009[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Rosen, né le 7 mai 1946 à Harrow au nord de Londres, est un écrivain britannique de littérature d'enfance et de jeunesse. Il est titulaire de la distinction Children's Laureate de juin 2007 à 2009.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michael_Rosen_(%C3%A9crivain)</t>
+          <t>Michael_Rosen_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis au moins 2012, Michael Rosen est une source très utilisé dans les YouTube Poops anglais, pour sa facilité à éditer et faire en sorte que la voix de Michael dit des grossièretés, la vidéo la plus utilisé et son poème intitulé « Hot Food » dont la répétition comique du claquement de langue et du « Nice » (déformé en Noice, du fait de l'accent britannique) est régulièrement détournée ou reprise hors de son contexte[3],[4],[5]. 
-En 2023, il est sélectionné pour la troisième année d'affilée (depuis 2021) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis au moins 2012, Michael Rosen est une source très utilisé dans les YouTube Poops anglais, pour sa facilité à éditer et faire en sorte que la voix de Michael dit des grossièretés, la vidéo la plus utilisé et son poème intitulé « Hot Food » dont la répétition comique du claquement de langue et du « Nice » (déformé en Noice, du fait de l'accent britannique) est régulièrement détournée ou reprise hors de son contexte. 
+En 2023, il est sélectionné pour la troisième année d'affilée (depuis 2021) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michael_Rosen_(%C3%A9crivain)</t>
+          <t>Michael_Rosen_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1990 : Prix Sorcières[7] catégorie Album, pour La Chasse à l’ours, illustrations de Helen Oxenbury
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1990 : Prix Sorcières catégorie Album, pour La Chasse à l’ours, illustrations de Helen Oxenbury
 2007 : Children's Laureate
-2021 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant trois années d'affilée[6]</t>
+2021 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant trois années d'affilée</t>
         </is>
       </c>
     </row>
